--- a/01_ProjectPlanning/06_EffortEstimation.xlsx
+++ b/01_ProjectPlanning/06_EffortEstimation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amgad\Desktop\3CHIF\SYP\if.05.61_01-project-repository\01_ProjectPlanning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindi\.aSchule\3CHIF\SYP\Projekt_ADL\01_ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{069574EF-3D5B-4B77-97E9-1152D306E58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77D9384-89E2-4031-A9ED-605B73D181B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FFCB8E78-0403-4EBC-A114-9EF481813729}"/>
+    <workbookView xWindow="5820" yWindow="1830" windowWidth="18000" windowHeight="10950" xr2:uid="{FFCB8E78-0403-4EBC-A114-9EF481813729}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>5 Hours</t>
+  </si>
+  <si>
+    <t>14 Hours</t>
+  </si>
+  <si>
+    <t>11 Hours</t>
+  </si>
+  <si>
+    <t>2 Hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,5 Hours</t>
+  </si>
+  <si>
+    <t>6 Hours</t>
   </si>
 </sst>
 </file>
@@ -137,8 +152,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60 % - Akzent1" xfId="1" builtinId="32"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -154,7 +169,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -453,10 +468,10 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
@@ -490,13 +505,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -510,13 +525,13 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -530,13 +545,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>

--- a/01_ProjectPlanning/06_EffortEstimation.xlsx
+++ b/01_ProjectPlanning/06_EffortEstimation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindi\.aSchule\3CHIF\SYP\Projekt_ADL\01_ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77D9384-89E2-4031-A9ED-605B73D181B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3833260-045F-4664-A589-C2F4576A7596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="1830" windowWidth="18000" windowHeight="10950" xr2:uid="{FFCB8E78-0403-4EBC-A114-9EF481813729}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="18000" windowHeight="10950" xr2:uid="{FFCB8E78-0403-4EBC-A114-9EF481813729}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Task</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>6 Hours</t>
+  </si>
+  <si>
+    <t>Mehr darauf achten Zeit nicht zu unterschätzen!</t>
+  </si>
+  <si>
+    <t>Effort von allen 3 Mitgliedern beachten!</t>
+  </si>
+  <si>
+    <t>Bessere Aufteilung der Aufgaben</t>
+  </si>
+  <si>
+    <t>Notes:</t>
   </si>
 </sst>
 </file>
@@ -465,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212A95A6-4E6B-43AC-808A-DB8CE0B9DFB7}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,6 +569,26 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01_ProjectPlanning/06_EffortEstimation.xlsx
+++ b/01_ProjectPlanning/06_EffortEstimation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindi\.aSchule\3CHIF\SYP\Projekt_ADL\01_ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3833260-045F-4664-A589-C2F4576A7596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3AAFC3-75F6-44D7-A328-201EF9D56CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="18000" windowHeight="10950" xr2:uid="{FFCB8E78-0403-4EBC-A114-9EF481813729}"/>
   </bookViews>
@@ -158,10 +158,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60 % - Akzent1" xfId="1" builtinId="32"/>
@@ -477,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212A95A6-4E6B-43AC-808A-DB8CE0B9DFB7}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,17 +576,22 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
+      <c r="A7" s="3">
+        <v>44610</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>

--- a/01_ProjectPlanning/06_EffortEstimation.xlsx
+++ b/01_ProjectPlanning/06_EffortEstimation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindi\.aSchule\3CHIF\SYP\Projekt_ADL\01_ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3AAFC3-75F6-44D7-A328-201EF9D56CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D69B2A4-7AA2-4302-95EE-A2940E035320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="18000" windowHeight="10950" xr2:uid="{FFCB8E78-0403-4EBC-A114-9EF481813729}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Task</t>
   </si>
@@ -57,18 +57,9 @@
     <t>Creating Design</t>
   </si>
   <si>
-    <t>4 Hours</t>
-  </si>
-  <si>
-    <t>0 Hours</t>
-  </si>
-  <si>
     <t>Searching for Tools</t>
   </si>
   <si>
-    <t>3 Hours</t>
-  </si>
-  <si>
     <t>Design Team</t>
   </si>
   <si>
@@ -79,24 +70,6 @@
   </si>
   <si>
     <t xml:space="preserve">Info Team </t>
-  </si>
-  <si>
-    <t>5 Hours</t>
-  </si>
-  <si>
-    <t>14 Hours</t>
-  </si>
-  <si>
-    <t>11 Hours</t>
-  </si>
-  <si>
-    <t>2 Hour</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,5 Hours</t>
-  </si>
-  <si>
-    <t>6 Hours</t>
   </si>
   <si>
     <t>Mehr darauf achten Zeit nicht zu unterschätzen!</t>
@@ -115,6 +88,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,11 +134,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60 % - Akzent1" xfId="1" builtinId="32"/>
@@ -481,12 +458,13 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -503,7 +481,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -514,88 +492,92 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4">
+        <f>C2-D2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1.5</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E4" si="0">C3-D3</f>
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>44610</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01_ProjectPlanning/06_EffortEstimation.xlsx
+++ b/01_ProjectPlanning/06_EffortEstimation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindi\.aSchule\3CHIF\SYP\Projekt_ADL\01_ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D69B2A4-7AA2-4302-95EE-A2940E035320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7C04AD-38E3-4A9F-8C0B-5C23EB58D6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="18000" windowHeight="10950" xr2:uid="{FFCB8E78-0403-4EBC-A114-9EF481813729}"/>
+    <workbookView xWindow="5070" yWindow="810" windowWidth="18000" windowHeight="10950" xr2:uid="{FFCB8E78-0403-4EBC-A114-9EF481813729}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>Notes:</t>
+  </si>
+  <si>
+    <t>Download Tools and get used to it</t>
+  </si>
+  <si>
+    <t>Developing Team</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Develop the Frontend</t>
+  </si>
+  <si>
+    <t>Develop the Backend</t>
   </si>
 </sst>
 </file>
@@ -455,17 +470,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212A95A6-4E6B-43AC-808A-DB8CE0B9DFB7}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="DW1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -523,7 +538,7 @@
         <v>1.5</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E4" si="0">C3-D3</f>
+        <f t="shared" ref="E3:E7" si="0">C3-D3</f>
         <v>0.5</v>
       </c>
       <c r="F3" t="s">
@@ -541,38 +556,89 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>44610</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
